--- a/files/Mac_User.xlsx
+++ b/files/Mac_User.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,16 +453,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60-1D-91-78-43-74</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1019</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/files/Mac_User.xlsx
+++ b/files/Mac_User.xlsx
@@ -453,16 +453,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>48-C7-96-31-BA-ED</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>671</v>
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
